--- a/reports/_COSCO AGENT_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_36_.xlsx
+++ b/reports/_COSCO AGENT_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_36_.xlsx
@@ -1331,8 +1331,8 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="33.889887640449444"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="82.28988764044944"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="82.28988764044944"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="60.28988764044945"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="19.4561797752809"/>
@@ -1555,7 +1555,7 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="M6" s="0" t="d">
+      <c r="M6" s="4" t="d">
         <v>2018-09-18T11:17:47.346</v>
       </c>
       <c r="N6" s="0" t="inlineStr">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="S6" s="0"/>
       <c r="T6" s="0"/>
-      <c r="U6" s="0"/>
+      <c r="U6" s="4"/>
       <c r="V6" s="0"/>
       <c r="W6" s="0"/>
       <c r="X6" s="0"/>
@@ -1699,232 +1699,74 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>37028</v>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>CBHU2681380</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="F8" s="0" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="G8" s="0" t="inlineStr">
-        <is>
-          <t>COA</t>
-        </is>
-      </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="inlineStr">
-        <is>
-          <t>MV.THORSWIND</t>
-        </is>
-      </c>
-      <c r="K8" s="0" t="inlineStr">
-        <is>
-          <t>2018/1879</t>
-        </is>
-      </c>
-      <c r="L8" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M8" s="4" t="d">
-        <v>2018-06-29T00:00:00</v>
-      </c>
-      <c r="N8" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A8" s="0"/>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="0"/>
       <c r="O8" s="0"/>
-      <c r="P8" s="0" t="n">
-        <v>157</v>
-      </c>
-      <c r="Q8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
       <c r="S8" s="0"/>
       <c r="T8" s="0"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="0" t="n">
-        <v>1445864</v>
-      </c>
-      <c r="W8" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
       <c r="X8" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y8" s="0" t="inlineStr">
-        <is>
           <t>FRONT PANEL AIR PLATE SCROW MISSING 04 PCS &amp; AIR PLATE BENT 18".</t>
         </is>
       </c>
-      <c r="Z8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>37028</v>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>CBHU2681380</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="F9" s="0" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="G9" s="0" t="inlineStr">
-        <is>
-          <t>COA</t>
-        </is>
-      </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I9" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J9" s="0" t="inlineStr">
-        <is>
-          <t>MV.THORSWIND</t>
-        </is>
-      </c>
-      <c r="K9" s="0" t="inlineStr">
-        <is>
-          <t>2018/1879</t>
-        </is>
-      </c>
-      <c r="L9" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M9" s="4" t="d">
-        <v>2018-06-29T00:00:00</v>
-      </c>
-      <c r="N9" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A9" s="0"/>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="0"/>
       <c r="O9" s="0"/>
-      <c r="P9" s="0" t="n">
-        <v>157</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
       <c r="S9" s="0"/>
       <c r="T9" s="0"/>
       <c r="U9" s="4"/>
-      <c r="V9" s="0" t="n">
-        <v>1445864</v>
-      </c>
-      <c r="W9" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V9" s="0"/>
+      <c r="W9" s="0"/>
       <c r="X9" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y9" s="0" t="inlineStr">
-        <is>
           <t>RF FLOOR  DIRTY BY DUST.</t>
         </is>
       </c>
-      <c r="Z9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y9" s="0"/>
+      <c r="Z9" s="0"/>
+      <c r="AA9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>37263</v>
@@ -2035,232 +1877,74 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>37263</v>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>CCLU7101334</t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F11" s="0" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="G11" s="0" t="inlineStr">
-        <is>
-          <t>COA</t>
-        </is>
-      </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I11" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L11" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M11" s="4" t="d">
-        <v>2018-08-11T00:00:00</v>
-      </c>
-      <c r="N11" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A11" s="0"/>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="0"/>
       <c r="O11" s="0"/>
-      <c r="P11" s="0" t="n">
-        <v>114</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
       <c r="S11" s="0"/>
       <c r="T11" s="0"/>
       <c r="U11" s="4"/>
-      <c r="V11" s="0" t="n">
-        <v>1466124</v>
-      </c>
-      <c r="W11" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0"/>
       <c r="X11" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y11" s="0" t="inlineStr">
-        <is>
           <t>F/B BROKEN DOWN 18'X18' &amp; PUTTING MISSING WITH LIGHT PASSING 24'.</t>
         </is>
       </c>
-      <c r="Z11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y11" s="0"/>
+      <c r="Z11" s="0"/>
+      <c r="AA11" s="0"/>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>37263</v>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>CCLU7101334</t>
-        </is>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F12" s="0" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="G12" s="0" t="inlineStr">
-        <is>
-          <t>COA</t>
-        </is>
-      </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I12" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L12" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M12" s="4" t="d">
-        <v>2018-08-11T00:00:00</v>
-      </c>
-      <c r="N12" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A12" s="0"/>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="0"/>
       <c r="O12" s="0"/>
-      <c r="P12" s="0" t="n">
-        <v>114</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="0"/>
       <c r="S12" s="0"/>
       <c r="T12" s="0"/>
       <c r="U12" s="4"/>
-      <c r="V12" s="0" t="n">
-        <v>1466124</v>
-      </c>
-      <c r="W12" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V12" s="0"/>
+      <c r="W12" s="0"/>
       <c r="X12" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y12" s="0" t="inlineStr">
-        <is>
           <t>F/B DIRTY BY WASTES PAER DUST &amp; ODOUR.</t>
         </is>
       </c>
-      <c r="Z12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y12" s="0"/>
+      <c r="Z12" s="0"/>
+      <c r="AA12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>37289</v>
@@ -2371,344 +2055,107 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>37289</v>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>SEGU1921565</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F14" s="0" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="G14" s="0" t="inlineStr">
-        <is>
-          <t>COA</t>
-        </is>
-      </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I14" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J14" s="0" t="inlineStr">
-        <is>
-          <t>OEL MALAYSIA</t>
-        </is>
-      </c>
-      <c r="K14" s="0" t="inlineStr">
-        <is>
-          <t>2018/2275</t>
-        </is>
-      </c>
-      <c r="L14" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M14" s="4" t="d">
-        <v>2018-08-15T00:00:00</v>
-      </c>
-      <c r="N14" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A14" s="0"/>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="0"/>
       <c r="O14" s="0"/>
-      <c r="P14" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="Q14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
       <c r="S14" s="0"/>
       <c r="T14" s="0"/>
       <c r="U14" s="4"/>
-      <c r="V14" s="0" t="n">
-        <v>1468011</v>
-      </c>
-      <c r="W14" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V14" s="0"/>
+      <c r="W14" s="0"/>
       <c r="X14" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y14" s="0" t="inlineStr">
-        <is>
           <t>BOTH DOOR LOCK BAR  BENT 02 PEC</t>
         </is>
       </c>
-      <c r="Z14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y14" s="0"/>
+      <c r="Z14" s="0"/>
+      <c r="AA14" s="0"/>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>37289</v>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>SEGU1921565</t>
-        </is>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F15" s="0" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="G15" s="0" t="inlineStr">
-        <is>
-          <t>COA</t>
-        </is>
-      </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I15" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J15" s="0" t="inlineStr">
-        <is>
-          <t>OEL MALAYSIA</t>
-        </is>
-      </c>
-      <c r="K15" s="0" t="inlineStr">
-        <is>
-          <t>2018/2275</t>
-        </is>
-      </c>
-      <c r="L15" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M15" s="4" t="d">
-        <v>2018-08-15T00:00:00</v>
-      </c>
-      <c r="N15" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A15" s="0"/>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="0"/>
       <c r="O15" s="0"/>
-      <c r="P15" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="0"/>
       <c r="S15" s="0"/>
       <c r="T15" s="0"/>
       <c r="U15" s="4"/>
-      <c r="V15" s="0" t="n">
-        <v>1468011</v>
-      </c>
-      <c r="W15" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V15" s="0"/>
+      <c r="W15" s="0"/>
       <c r="X15" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y15" s="0" t="inlineStr">
-        <is>
           <t>L/SIDE PANEL CUT 16'+02'</t>
         </is>
       </c>
-      <c r="Z15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y15" s="0"/>
+      <c r="Z15" s="0"/>
+      <c r="AA15" s="0"/>
     </row>
     <row r="16">
-      <c r="A16" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>37289</v>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>SEGU1921565</t>
-        </is>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E16" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F16" s="0" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="G16" s="0" t="inlineStr">
-        <is>
-          <t>COA</t>
-        </is>
-      </c>
-      <c r="H16" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I16" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J16" s="0" t="inlineStr">
-        <is>
-          <t>OEL MALAYSIA</t>
-        </is>
-      </c>
-      <c r="K16" s="0" t="inlineStr">
-        <is>
-          <t>2018/2275</t>
-        </is>
-      </c>
-      <c r="L16" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M16" s="4" t="d">
-        <v>2018-08-15T00:00:00</v>
-      </c>
-      <c r="N16" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A16" s="0"/>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="0"/>
       <c r="O16" s="0"/>
-      <c r="P16" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="Q16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P16" s="0"/>
+      <c r="Q16" s="0"/>
+      <c r="R16" s="0"/>
       <c r="S16" s="0"/>
       <c r="T16" s="0"/>
       <c r="U16" s="4"/>
-      <c r="V16" s="0" t="n">
-        <v>1468011</v>
-      </c>
-      <c r="W16" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V16" s="0"/>
+      <c r="W16" s="0"/>
       <c r="X16" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y16" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD DIRTY BY SCRAP DUST</t>
         </is>
       </c>
-      <c r="Z16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y16" s="0"/>
+      <c r="Z16" s="0"/>
+      <c r="AA16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>37345</v>
@@ -2819,120 +2266,41 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>37345</v>
-      </c>
-      <c r="C18" s="0" t="inlineStr">
-        <is>
-          <t>BSIU9564293</t>
-        </is>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E18" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F18" s="0" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="G18" s="0" t="inlineStr">
-        <is>
-          <t>COA</t>
-        </is>
-      </c>
-      <c r="H18" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I18" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L18" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M18" s="4" t="d">
-        <v>2018-08-19T00:00:00</v>
-      </c>
-      <c r="N18" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A18" s="0"/>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0"/>
+      <c r="H18" s="0"/>
+      <c r="I18" s="0"/>
+      <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
+      <c r="L18" s="0"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="0"/>
       <c r="O18" s="0"/>
-      <c r="P18" s="0" t="n">
-        <v>106</v>
-      </c>
-      <c r="Q18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P18" s="0"/>
+      <c r="Q18" s="0"/>
+      <c r="R18" s="0"/>
       <c r="S18" s="0"/>
       <c r="T18" s="0"/>
       <c r="U18" s="4"/>
-      <c r="V18" s="0" t="n">
-        <v>1469906</v>
-      </c>
-      <c r="W18" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V18" s="0"/>
+      <c r="W18" s="0"/>
       <c r="X18" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y18" s="0" t="inlineStr">
-        <is>
           <t>F/B DIRTY BY DUST .</t>
         </is>
       </c>
-      <c r="Z18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y18" s="0"/>
+      <c r="Z18" s="0"/>
+      <c r="AA18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>37352</v>
@@ -3043,120 +2411,41 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>37352</v>
-      </c>
-      <c r="C20" s="0" t="inlineStr">
-        <is>
-          <t>CBHU8864367</t>
-        </is>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E20" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F20" s="0" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="G20" s="0" t="inlineStr">
-        <is>
-          <t>COA</t>
-        </is>
-      </c>
-      <c r="H20" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I20" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L20" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M20" s="4" t="d">
-        <v>2018-08-19T00:00:00</v>
-      </c>
-      <c r="N20" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A20" s="0"/>
+      <c r="B20" s="0"/>
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0"/>
+      <c r="H20" s="0"/>
+      <c r="I20" s="0"/>
+      <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
+      <c r="L20" s="0"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="0"/>
       <c r="O20" s="0"/>
-      <c r="P20" s="0" t="n">
-        <v>106</v>
-      </c>
-      <c r="Q20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P20" s="0"/>
+      <c r="Q20" s="0"/>
+      <c r="R20" s="0"/>
       <c r="S20" s="0"/>
       <c r="T20" s="0"/>
       <c r="U20" s="4"/>
-      <c r="V20" s="0" t="n">
-        <v>1470102</v>
-      </c>
-      <c r="W20" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V20" s="0"/>
+      <c r="W20" s="0"/>
       <c r="X20" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y20" s="0" t="inlineStr">
-        <is>
           <t>F/B DIRTY BY  BADLY SAND DUST.</t>
         </is>
       </c>
-      <c r="Z20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y20" s="0"/>
+      <c r="Z20" s="0"/>
+      <c r="AA20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>37355</v>
@@ -3267,456 +2556,140 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>37355</v>
-      </c>
-      <c r="C22" s="0" t="inlineStr">
-        <is>
-          <t>TGHU6637668</t>
-        </is>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E22" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F22" s="0" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="G22" s="0" t="inlineStr">
-        <is>
-          <t>COA</t>
-        </is>
-      </c>
-      <c r="H22" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I22" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L22" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M22" s="4" t="d">
-        <v>2018-08-20T00:00:00</v>
-      </c>
-      <c r="N22" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A22" s="0"/>
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
+      <c r="H22" s="0"/>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="0"/>
       <c r="O22" s="0"/>
-      <c r="P22" s="0" t="n">
-        <v>105</v>
-      </c>
-      <c r="Q22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P22" s="0"/>
+      <c r="Q22" s="0"/>
+      <c r="R22" s="0"/>
       <c r="S22" s="0"/>
       <c r="T22" s="0"/>
       <c r="U22" s="4"/>
-      <c r="V22" s="0" t="n">
-        <v>1470215</v>
-      </c>
-      <c r="W22" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V22" s="0"/>
+      <c r="W22" s="0"/>
       <c r="X22" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y22" s="0" t="inlineStr">
-        <is>
           <t>R/SIDE PANEL CORROSION  CUT 06' </t>
         </is>
       </c>
-      <c r="Z22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y22" s="0"/>
+      <c r="Z22" s="0"/>
+      <c r="AA22" s="0"/>
     </row>
     <row r="23">
-      <c r="A23" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>37355</v>
-      </c>
-      <c r="C23" s="0" t="inlineStr">
-        <is>
-          <t>TGHU6637668</t>
-        </is>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E23" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F23" s="0" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="G23" s="0" t="inlineStr">
-        <is>
-          <t>COA</t>
-        </is>
-      </c>
-      <c r="H23" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I23" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L23" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M23" s="4" t="d">
-        <v>2018-08-20T00:00:00</v>
-      </c>
-      <c r="N23" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A23" s="0"/>
+      <c r="B23" s="0"/>
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0"/>
+      <c r="G23" s="0"/>
+      <c r="H23" s="0"/>
+      <c r="I23" s="0"/>
+      <c r="J23" s="0"/>
+      <c r="K23" s="0"/>
+      <c r="L23" s="0"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="0"/>
       <c r="O23" s="0"/>
-      <c r="P23" s="0" t="n">
-        <v>105</v>
-      </c>
-      <c r="Q23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P23" s="0"/>
+      <c r="Q23" s="0"/>
+      <c r="R23" s="0"/>
       <c r="S23" s="0"/>
       <c r="T23" s="0"/>
       <c r="U23" s="4"/>
-      <c r="V23" s="0" t="n">
-        <v>1470215</v>
-      </c>
-      <c r="W23" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V23" s="0"/>
+      <c r="W23" s="0"/>
       <c r="X23" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y23" s="0" t="inlineStr">
-        <is>
           <t>R/SIDE PANEL PUSSED OUT 36'X24'X02' .</t>
         </is>
       </c>
-      <c r="Z23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y23" s="0"/>
+      <c r="Z23" s="0"/>
+      <c r="AA23" s="0"/>
     </row>
     <row r="24">
-      <c r="A24" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>37355</v>
-      </c>
-      <c r="C24" s="0" t="inlineStr">
-        <is>
-          <t>TGHU6637668</t>
-        </is>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E24" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F24" s="0" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="G24" s="0" t="inlineStr">
-        <is>
-          <t>COA</t>
-        </is>
-      </c>
-      <c r="H24" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I24" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L24" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M24" s="4" t="d">
-        <v>2018-08-20T00:00:00</v>
-      </c>
-      <c r="N24" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A24" s="0"/>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="0"/>
       <c r="O24" s="0"/>
-      <c r="P24" s="0" t="n">
-        <v>105</v>
-      </c>
-      <c r="Q24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P24" s="0"/>
+      <c r="Q24" s="0"/>
+      <c r="R24" s="0"/>
       <c r="S24" s="0"/>
       <c r="T24" s="0"/>
       <c r="U24" s="4"/>
-      <c r="V24" s="0" t="n">
-        <v>1470215</v>
-      </c>
-      <c r="W24" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V24" s="0"/>
+      <c r="W24" s="0"/>
       <c r="X24" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y24" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD FLY WOOD MISSING VARIOUS PLC</t>
         </is>
       </c>
-      <c r="Z24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y24" s="0"/>
+      <c r="Z24" s="0"/>
+      <c r="AA24" s="0"/>
     </row>
     <row r="25">
-      <c r="A25" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>37355</v>
-      </c>
-      <c r="C25" s="0" t="inlineStr">
-        <is>
-          <t>TGHU6637668</t>
-        </is>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E25" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F25" s="0" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="G25" s="0" t="inlineStr">
-        <is>
-          <t>COA</t>
-        </is>
-      </c>
-      <c r="H25" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I25" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L25" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M25" s="4" t="d">
-        <v>2018-08-20T00:00:00</v>
-      </c>
-      <c r="N25" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A25" s="0"/>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="0"/>
       <c r="O25" s="0"/>
-      <c r="P25" s="0" t="n">
-        <v>105</v>
-      </c>
-      <c r="Q25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P25" s="0"/>
+      <c r="Q25" s="0"/>
+      <c r="R25" s="0"/>
       <c r="S25" s="0"/>
       <c r="T25" s="0"/>
       <c r="U25" s="4"/>
-      <c r="V25" s="0" t="n">
-        <v>1470215</v>
-      </c>
-      <c r="W25" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V25" s="0"/>
+      <c r="W25" s="0"/>
       <c r="X25" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y25" s="0" t="inlineStr">
-        <is>
           <t>F/B DIRTY BY DUST ?&amp; SCRATCHED V.P</t>
         </is>
       </c>
-      <c r="Z25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y25" s="0"/>
+      <c r="Z25" s="0"/>
+      <c r="AA25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>37915</v>
@@ -3828,7 +2801,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>37916</v>
@@ -3940,7 +2913,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>37917</v>
@@ -4052,7 +3025,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>37973</v>
@@ -4163,120 +3136,41 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>37973</v>
-      </c>
-      <c r="C30" s="0" t="inlineStr">
-        <is>
-          <t>TCNU5930833</t>
-        </is>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E30" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F30" s="0" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="G30" s="0" t="inlineStr">
-        <is>
-          <t>COA</t>
-        </is>
-      </c>
-      <c r="H30" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I30" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J30" s="0" t="inlineStr">
-        <is>
-          <t>KAPITAN MASLOV</t>
-        </is>
-      </c>
-      <c r="K30" s="0" t="inlineStr">
-        <is>
-          <t>2468/2018</t>
-        </is>
-      </c>
-      <c r="L30" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M30" s="4" t="d">
-        <v>2018-09-06T00:00:00</v>
-      </c>
-      <c r="N30" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A30" s="0"/>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="0"/>
       <c r="O30" s="0"/>
-      <c r="P30" s="0" t="n">
-        <v>88</v>
-      </c>
-      <c r="Q30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P30" s="0"/>
+      <c r="Q30" s="0"/>
+      <c r="R30" s="0"/>
       <c r="S30" s="0"/>
       <c r="T30" s="0"/>
       <c r="U30" s="4"/>
-      <c r="V30" s="0" t="n">
-        <v>1475510</v>
-      </c>
-      <c r="W30" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V30" s="0"/>
+      <c r="W30" s="0"/>
       <c r="X30" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="Y30" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD OIL SPOT &amp; COTTON &amp; MUD DUST &amp; TYRE MARK &amp; SCRATCHED</t>
         </is>
       </c>
-      <c r="Z30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y30" s="0"/>
+      <c r="Z30" s="0"/>
+      <c r="AA30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>38780</v>
@@ -4387,120 +3281,41 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>38780</v>
-      </c>
-      <c r="C32" s="0" t="inlineStr">
-        <is>
-          <t>CXRU1229872</t>
-        </is>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E32" s="0" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="F32" s="0" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="G32" s="0" t="inlineStr">
-        <is>
-          <t>COA</t>
-        </is>
-      </c>
-      <c r="H32" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I32" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J32" s="0" t="inlineStr">
-        <is>
-          <t>MARINE BIA</t>
-        </is>
-      </c>
-      <c r="K32" s="0" t="inlineStr">
-        <is>
-          <t>2018/2535</t>
-        </is>
-      </c>
-      <c r="L32" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M32" s="4" t="d">
-        <v>2018-09-12T00:00:00</v>
-      </c>
-      <c r="N32" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A32" s="0"/>
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
+      <c r="J32" s="0"/>
+      <c r="K32" s="0"/>
+      <c r="L32" s="0"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="0"/>
       <c r="O32" s="0"/>
-      <c r="P32" s="0" t="n">
-        <v>82</v>
-      </c>
-      <c r="Q32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P32" s="0"/>
+      <c r="Q32" s="0"/>
+      <c r="R32" s="0"/>
       <c r="S32" s="0"/>
       <c r="T32" s="0"/>
       <c r="U32" s="4"/>
-      <c r="V32" s="0" t="n">
-        <v>1478337</v>
-      </c>
-      <c r="W32" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V32" s="0"/>
+      <c r="W32" s="0"/>
       <c r="X32" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y32" s="0" t="inlineStr">
-        <is>
           <t>F/B DIRTY BY DUST</t>
         </is>
       </c>
-      <c r="Z32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y32" s="0"/>
+      <c r="Z32" s="0"/>
+      <c r="AA32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>38829</v>
@@ -4588,7 +3403,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>38830</v>
@@ -4699,120 +3514,41 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>38830</v>
-      </c>
-      <c r="C35" s="0" t="inlineStr">
-        <is>
-          <t>CCLU2829116</t>
-        </is>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E35" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F35" s="0" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="G35" s="0" t="inlineStr">
-        <is>
-          <t>COA</t>
-        </is>
-      </c>
-      <c r="H35" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I35" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J35" s="0" t="inlineStr">
-        <is>
-          <t>KOTA BUANA</t>
-        </is>
-      </c>
-      <c r="K35" s="0" t="inlineStr">
-        <is>
-          <t>2602/2018</t>
-        </is>
-      </c>
-      <c r="L35" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M35" s="4" t="d">
-        <v>2018-09-12T00:00:00</v>
-      </c>
-      <c r="N35" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A35" s="0"/>
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="0"/>
+      <c r="L35" s="0"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="0"/>
       <c r="O35" s="0"/>
-      <c r="P35" s="0" t="n">
-        <v>82</v>
-      </c>
-      <c r="Q35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P35" s="0"/>
+      <c r="Q35" s="0"/>
+      <c r="R35" s="0"/>
       <c r="S35" s="0"/>
       <c r="T35" s="0"/>
       <c r="U35" s="4"/>
-      <c r="V35" s="0" t="n">
-        <v>1478422</v>
-      </c>
-      <c r="W35" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V35" s="0"/>
+      <c r="W35" s="0"/>
       <c r="X35" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y35" s="0" t="inlineStr">
-        <is>
           <t>F/B DIRTY BY  SODIUM SULPHATE DUST &amp; ODOUR .</t>
         </is>
       </c>
-      <c r="Z35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y35" s="0"/>
+      <c r="Z35" s="0"/>
+      <c r="AA35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>38881</v>
@@ -4923,120 +3659,41 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>38881</v>
-      </c>
-      <c r="C37" s="0" t="inlineStr">
-        <is>
-          <t>CBHU8622888</t>
-        </is>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E37" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F37" s="0" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="G37" s="0" t="inlineStr">
-        <is>
-          <t>COA</t>
-        </is>
-      </c>
-      <c r="H37" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I37" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J37" s="0" t="inlineStr">
-        <is>
-          <t>OCEAN NHAVA SHEVA</t>
-        </is>
-      </c>
-      <c r="K37" s="0" t="inlineStr">
-        <is>
-          <t>2566/2018</t>
-        </is>
-      </c>
-      <c r="L37" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M37" s="4" t="d">
-        <v>2018-09-12T00:00:00</v>
-      </c>
-      <c r="N37" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A37" s="0"/>
+      <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
+      <c r="I37" s="0"/>
+      <c r="J37" s="0"/>
+      <c r="K37" s="0"/>
+      <c r="L37" s="0"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="0"/>
       <c r="O37" s="0"/>
-      <c r="P37" s="0" t="n">
-        <v>82</v>
-      </c>
-      <c r="Q37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P37" s="0"/>
+      <c r="Q37" s="0"/>
+      <c r="R37" s="0"/>
       <c r="S37" s="0"/>
       <c r="T37" s="0"/>
       <c r="U37" s="4"/>
-      <c r="V37" s="0" t="n">
-        <v>1478624</v>
-      </c>
-      <c r="W37" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V37" s="0"/>
+      <c r="W37" s="0"/>
       <c r="X37" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y37" s="0" t="inlineStr">
-        <is>
           <t>F/B DIRTY BY MUD+LENTILS ,SAND ,TYER MARK,STAPLE FIBER  DUST .</t>
         </is>
       </c>
-      <c r="Z37" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA37" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB37" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y37" s="0"/>
+      <c r="Z37" s="0"/>
+      <c r="AA37" s="0"/>
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>38882</v>
@@ -5124,7 +3781,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>40207</v>
@@ -5212,7 +3869,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>40208</v>
@@ -5300,7 +3957,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>37411</v>
@@ -5411,232 +4068,74 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>37411</v>
-      </c>
-      <c r="C42" s="0" t="inlineStr">
-        <is>
-          <t>CBHU8162611</t>
-        </is>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E42" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F42" s="0" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="G42" s="0" t="inlineStr">
-        <is>
-          <t>COA</t>
-        </is>
-      </c>
-      <c r="H42" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I42" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J42" s="0" t="inlineStr">
-        <is>
-          <t>KSL GLADIATOR V KSLGE22</t>
-        </is>
-      </c>
-      <c r="K42" s="0" t="inlineStr">
-        <is>
-          <t>54/2018</t>
-        </is>
-      </c>
-      <c r="L42" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M42" s="4" t="d">
-        <v>2018-08-27T00:00:00</v>
-      </c>
-      <c r="N42" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A42" s="0"/>
+      <c r="B42" s="0"/>
+      <c r="C42" s="0"/>
+      <c r="D42" s="0"/>
+      <c r="E42" s="0"/>
+      <c r="F42" s="0"/>
+      <c r="G42" s="0"/>
+      <c r="H42" s="0"/>
+      <c r="I42" s="0"/>
+      <c r="J42" s="0"/>
+      <c r="K42" s="0"/>
+      <c r="L42" s="0"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="0"/>
       <c r="O42" s="0"/>
-      <c r="P42" s="0" t="n">
-        <v>98</v>
-      </c>
-      <c r="Q42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P42" s="0"/>
+      <c r="Q42" s="0"/>
+      <c r="R42" s="0"/>
       <c r="S42" s="0"/>
       <c r="T42" s="0"/>
       <c r="U42" s="4"/>
-      <c r="V42" s="0" t="n">
-        <v>1471222</v>
-      </c>
-      <c r="W42" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V42" s="0"/>
+      <c r="W42" s="0"/>
       <c r="X42" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y42" s="0" t="inlineStr">
-        <is>
           <t>EXTERNAL PANEL RUSTED CORROSION</t>
         </is>
       </c>
-      <c r="Z42" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA42" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB42" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y42" s="0"/>
+      <c r="Z42" s="0"/>
+      <c r="AA42" s="0"/>
     </row>
     <row r="43">
-      <c r="A43" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>37411</v>
-      </c>
-      <c r="C43" s="0" t="inlineStr">
-        <is>
-          <t>CBHU8162611</t>
-        </is>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E43" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F43" s="0" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="G43" s="0" t="inlineStr">
-        <is>
-          <t>COA</t>
-        </is>
-      </c>
-      <c r="H43" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I43" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J43" s="0" t="inlineStr">
-        <is>
-          <t>KSL GLADIATOR V KSLGE22</t>
-        </is>
-      </c>
-      <c r="K43" s="0" t="inlineStr">
-        <is>
-          <t>54/2018</t>
-        </is>
-      </c>
-      <c r="L43" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M43" s="4" t="d">
-        <v>2018-08-27T00:00:00</v>
-      </c>
-      <c r="N43" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A43" s="0"/>
+      <c r="B43" s="0"/>
+      <c r="C43" s="0"/>
+      <c r="D43" s="0"/>
+      <c r="E43" s="0"/>
+      <c r="F43" s="0"/>
+      <c r="G43" s="0"/>
+      <c r="H43" s="0"/>
+      <c r="I43" s="0"/>
+      <c r="J43" s="0"/>
+      <c r="K43" s="0"/>
+      <c r="L43" s="0"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="0"/>
       <c r="O43" s="0"/>
-      <c r="P43" s="0" t="n">
-        <v>98</v>
-      </c>
-      <c r="Q43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P43" s="0"/>
+      <c r="Q43" s="0"/>
+      <c r="R43" s="0"/>
       <c r="S43" s="0"/>
       <c r="T43" s="0"/>
       <c r="U43" s="4"/>
-      <c r="V43" s="0" t="n">
-        <v>1471222</v>
-      </c>
-      <c r="W43" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V43" s="0"/>
+      <c r="W43" s="0"/>
       <c r="X43" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="Y43" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD DIRTY BY MUD DUST &amp; BLACK STAIN &amp;SCRATCHED</t>
         </is>
       </c>
-      <c r="Z43" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA43" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB43" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y43" s="0"/>
+      <c r="Z43" s="0"/>
+      <c r="AA43" s="0"/>
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>37788</v>
@@ -5748,7 +4247,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>37789</v>
@@ -5860,7 +4359,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>37790</v>
@@ -5971,120 +4470,41 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>37790</v>
-      </c>
-      <c r="C47" s="0" t="inlineStr">
-        <is>
-          <t>FSCU9315380</t>
-        </is>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E47" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F47" s="0" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="G47" s="0" t="inlineStr">
-        <is>
-          <t>COA</t>
-        </is>
-      </c>
-      <c r="H47" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I47" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J47" s="0" t="inlineStr">
-        <is>
-          <t>KAPITAN MASLOV</t>
-        </is>
-      </c>
-      <c r="K47" s="0" t="inlineStr">
-        <is>
-          <t>2468/2018</t>
-        </is>
-      </c>
-      <c r="L47" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M47" s="4" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="N47" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A47" s="0"/>
+      <c r="B47" s="0"/>
+      <c r="C47" s="0"/>
+      <c r="D47" s="0"/>
+      <c r="E47" s="0"/>
+      <c r="F47" s="0"/>
+      <c r="G47" s="0"/>
+      <c r="H47" s="0"/>
+      <c r="I47" s="0"/>
+      <c r="J47" s="0"/>
+      <c r="K47" s="0"/>
+      <c r="L47" s="0"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="0"/>
       <c r="O47" s="0"/>
-      <c r="P47" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="Q47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P47" s="0"/>
+      <c r="Q47" s="0"/>
+      <c r="R47" s="0"/>
       <c r="S47" s="0"/>
       <c r="T47" s="0"/>
       <c r="U47" s="4"/>
-      <c r="V47" s="0" t="n">
-        <v>1474541</v>
-      </c>
-      <c r="W47" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V47" s="0"/>
+      <c r="W47" s="0"/>
       <c r="X47" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y47" s="0" t="inlineStr">
-        <is>
           <t>F/B DIRTY BY COTTON DUST &amp; ODOUR .</t>
         </is>
       </c>
-      <c r="Z47" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA47" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB47" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y47" s="0"/>
+      <c r="Z47" s="0"/>
+      <c r="AA47" s="0"/>
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>37944</v>
@@ -6195,232 +4615,74 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>37944</v>
-      </c>
-      <c r="C49" s="0" t="inlineStr">
-        <is>
-          <t>CBHU5631989</t>
-        </is>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E49" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F49" s="0" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="G49" s="0" t="inlineStr">
-        <is>
-          <t>COA</t>
-        </is>
-      </c>
-      <c r="H49" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I49" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J49" s="0" t="inlineStr">
-        <is>
-          <t>MARGARET RIVER BRIDGE</t>
-        </is>
-      </c>
-      <c r="K49" s="0" t="inlineStr">
-        <is>
-          <t>2591/2018</t>
-        </is>
-      </c>
-      <c r="L49" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M49" s="4" t="d">
-        <v>2018-09-06T00:00:00</v>
-      </c>
-      <c r="N49" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A49" s="0"/>
+      <c r="B49" s="0"/>
+      <c r="C49" s="0"/>
+      <c r="D49" s="0"/>
+      <c r="E49" s="0"/>
+      <c r="F49" s="0"/>
+      <c r="G49" s="0"/>
+      <c r="H49" s="0"/>
+      <c r="I49" s="0"/>
+      <c r="J49" s="0"/>
+      <c r="K49" s="0"/>
+      <c r="L49" s="0"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="0"/>
       <c r="O49" s="0"/>
-      <c r="P49" s="0" t="n">
-        <v>88</v>
-      </c>
-      <c r="Q49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R49" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P49" s="0"/>
+      <c r="Q49" s="0"/>
+      <c r="R49" s="0"/>
       <c r="S49" s="0"/>
       <c r="T49" s="0"/>
       <c r="U49" s="4"/>
-      <c r="V49" s="0" t="n">
-        <v>1475409</v>
-      </c>
-      <c r="W49" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V49" s="0"/>
+      <c r="W49" s="0"/>
       <c r="X49" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y49" s="0" t="inlineStr">
-        <is>
           <t>EXTERNAL PANEL RUSTED CORROSION</t>
         </is>
       </c>
-      <c r="Z49" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA49" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB49" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y49" s="0"/>
+      <c r="Z49" s="0"/>
+      <c r="AA49" s="0"/>
     </row>
     <row r="50">
-      <c r="A50" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="B50" s="0" t="n">
-        <v>37944</v>
-      </c>
-      <c r="C50" s="0" t="inlineStr">
-        <is>
-          <t>CBHU5631989</t>
-        </is>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E50" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F50" s="0" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="G50" s="0" t="inlineStr">
-        <is>
-          <t>COA</t>
-        </is>
-      </c>
-      <c r="H50" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I50" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J50" s="0" t="inlineStr">
-        <is>
-          <t>MARGARET RIVER BRIDGE</t>
-        </is>
-      </c>
-      <c r="K50" s="0" t="inlineStr">
-        <is>
-          <t>2591/2018</t>
-        </is>
-      </c>
-      <c r="L50" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M50" s="4" t="d">
-        <v>2018-09-06T00:00:00</v>
-      </c>
-      <c r="N50" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A50" s="0"/>
+      <c r="B50" s="0"/>
+      <c r="C50" s="0"/>
+      <c r="D50" s="0"/>
+      <c r="E50" s="0"/>
+      <c r="F50" s="0"/>
+      <c r="G50" s="0"/>
+      <c r="H50" s="0"/>
+      <c r="I50" s="0"/>
+      <c r="J50" s="0"/>
+      <c r="K50" s="0"/>
+      <c r="L50" s="0"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="0"/>
       <c r="O50" s="0"/>
-      <c r="P50" s="0" t="n">
-        <v>88</v>
-      </c>
-      <c r="Q50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R50" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P50" s="0"/>
+      <c r="Q50" s="0"/>
+      <c r="R50" s="0"/>
       <c r="S50" s="0"/>
       <c r="T50" s="0"/>
       <c r="U50" s="4"/>
-      <c r="V50" s="0" t="n">
-        <v>1475409</v>
-      </c>
-      <c r="W50" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V50" s="0"/>
+      <c r="W50" s="0"/>
       <c r="X50" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="Y50" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD DIRTY BY SODIUM SULPHATE DUST &amp; ODOUR</t>
         </is>
       </c>
-      <c r="Z50" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA50" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB50" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y50" s="0"/>
+      <c r="Z50" s="0"/>
+      <c r="AA50" s="0"/>
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>37945</v>
@@ -6508,7 +4770,7 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>38854</v>
@@ -6619,120 +4881,41 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="0" t="n">
-        <v>48</v>
-      </c>
-      <c r="B53" s="0" t="n">
-        <v>38854</v>
-      </c>
-      <c r="C53" s="0" t="inlineStr">
-        <is>
-          <t>TEMU9284032</t>
-        </is>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E53" s="0" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="F53" s="0" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="G53" s="0" t="inlineStr">
-        <is>
-          <t>COA</t>
-        </is>
-      </c>
-      <c r="H53" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I53" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J53" s="0" t="inlineStr">
-        <is>
-          <t>TR ARAMIS V.010N</t>
-        </is>
-      </c>
-      <c r="K53" s="0" t="inlineStr">
-        <is>
-          <t>2018/2717</t>
-        </is>
-      </c>
-      <c r="L53" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M53" s="4" t="d">
-        <v>2018-09-12T00:00:00</v>
-      </c>
-      <c r="N53" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A53" s="0"/>
+      <c r="B53" s="0"/>
+      <c r="C53" s="0"/>
+      <c r="D53" s="0"/>
+      <c r="E53" s="0"/>
+      <c r="F53" s="0"/>
+      <c r="G53" s="0"/>
+      <c r="H53" s="0"/>
+      <c r="I53" s="0"/>
+      <c r="J53" s="0"/>
+      <c r="K53" s="0"/>
+      <c r="L53" s="0"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="0"/>
       <c r="O53" s="0"/>
-      <c r="P53" s="0" t="n">
-        <v>82</v>
-      </c>
-      <c r="Q53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R53" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P53" s="0"/>
+      <c r="Q53" s="0"/>
+      <c r="R53" s="0"/>
       <c r="S53" s="0"/>
       <c r="T53" s="0"/>
       <c r="U53" s="4"/>
-      <c r="V53" s="0" t="n">
-        <v>1478516</v>
-      </c>
-      <c r="W53" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V53" s="0"/>
+      <c r="W53" s="0"/>
       <c r="X53" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y53" s="0" t="inlineStr">
-        <is>
           <t>RF FLOOR BOARD DIRTY BY GARLICK DUST &amp; ODOUR</t>
         </is>
       </c>
-      <c r="Z53" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA53" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB53" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y53" s="0"/>
+      <c r="Z53" s="0"/>
+      <c r="AA53" s="0"/>
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>40035</v>
@@ -6820,7 +5003,7 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>40112</v>
@@ -6931,120 +5114,41 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="0" t="n">
-        <v>51</v>
-      </c>
-      <c r="B56" s="0" t="n">
-        <v>40112</v>
-      </c>
-      <c r="C56" s="0" t="inlineStr">
-        <is>
-          <t>CBHU8120494</t>
-        </is>
-      </c>
-      <c r="D56" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E56" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F56" s="0" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="G56" s="0" t="inlineStr">
-        <is>
-          <t>COA</t>
-        </is>
-      </c>
-      <c r="H56" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I56" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J56" s="0" t="inlineStr">
-        <is>
-          <t>OCEAN NHAVA SHEVA</t>
-        </is>
-      </c>
-      <c r="K56" s="0" t="inlineStr">
-        <is>
-          <t>2566/2018</t>
-        </is>
-      </c>
-      <c r="L56" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M56" s="4" t="d">
-        <v>2018-09-12T00:00:00</v>
-      </c>
-      <c r="N56" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A56" s="0"/>
+      <c r="B56" s="0"/>
+      <c r="C56" s="0"/>
+      <c r="D56" s="0"/>
+      <c r="E56" s="0"/>
+      <c r="F56" s="0"/>
+      <c r="G56" s="0"/>
+      <c r="H56" s="0"/>
+      <c r="I56" s="0"/>
+      <c r="J56" s="0"/>
+      <c r="K56" s="0"/>
+      <c r="L56" s="0"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="0"/>
       <c r="O56" s="0"/>
-      <c r="P56" s="0" t="n">
-        <v>82</v>
-      </c>
-      <c r="Q56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R56" s="0" t="inlineStr">
-        <is>
-          <t>Laden</t>
-        </is>
-      </c>
+      <c r="P56" s="0"/>
+      <c r="Q56" s="0"/>
+      <c r="R56" s="0"/>
       <c r="S56" s="0"/>
       <c r="T56" s="0"/>
       <c r="U56" s="4"/>
-      <c r="V56" s="0" t="n">
-        <v>1480180</v>
-      </c>
-      <c r="W56" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V56" s="0"/>
+      <c r="W56" s="0"/>
       <c r="X56" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y56" s="0" t="inlineStr">
-        <is>
           <t>F/B DIRTY BY BADLY MUD+SAND,TYER MARK STAPLE FIBER DUST &amp; ODOUR </t>
         </is>
       </c>
-      <c r="Z56" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA56" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB56" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y56" s="0"/>
+      <c r="Z56" s="0"/>
+      <c r="AA56" s="0"/>
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>40129</v>
@@ -7155,120 +5259,41 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="0" t="n">
-        <v>53</v>
-      </c>
-      <c r="B58" s="0" t="n">
-        <v>40129</v>
-      </c>
-      <c r="C58" s="0" t="inlineStr">
-        <is>
-          <t>TEMU6154159</t>
-        </is>
-      </c>
-      <c r="D58" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E58" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F58" s="0" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="G58" s="0" t="inlineStr">
-        <is>
-          <t>COA</t>
-        </is>
-      </c>
-      <c r="H58" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I58" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J58" s="0" t="inlineStr">
-        <is>
-          <t>KOTA WARIS</t>
-        </is>
-      </c>
-      <c r="K58" s="0" t="inlineStr">
-        <is>
-          <t>2018/2476</t>
-        </is>
-      </c>
-      <c r="L58" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M58" s="4" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="N58" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A58" s="0"/>
+      <c r="B58" s="0"/>
+      <c r="C58" s="0"/>
+      <c r="D58" s="0"/>
+      <c r="E58" s="0"/>
+      <c r="F58" s="0"/>
+      <c r="G58" s="0"/>
+      <c r="H58" s="0"/>
+      <c r="I58" s="0"/>
+      <c r="J58" s="0"/>
+      <c r="K58" s="0"/>
+      <c r="L58" s="0"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="0"/>
       <c r="O58" s="0"/>
-      <c r="P58" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="Q58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R58" s="0" t="inlineStr">
-        <is>
-          <t>Laden</t>
-        </is>
-      </c>
+      <c r="P58" s="0"/>
+      <c r="Q58" s="0"/>
+      <c r="R58" s="0"/>
       <c r="S58" s="0"/>
       <c r="T58" s="0"/>
       <c r="U58" s="4"/>
-      <c r="V58" s="0" t="n">
-        <v>1480299</v>
-      </c>
-      <c r="W58" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V58" s="0"/>
+      <c r="W58" s="0"/>
       <c r="X58" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y58" s="0" t="inlineStr">
-        <is>
           <t>INTERNAL PANEL DIRTY.</t>
         </is>
       </c>
-      <c r="Z58" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA58" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB58" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y58" s="0"/>
+      <c r="Z58" s="0"/>
+      <c r="AA58" s="0"/>
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>40130</v>
@@ -7356,7 +5381,7 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>40132</v>
@@ -7444,7 +5469,7 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="n">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>40133</v>

--- a/reports/_COSCO AGENT_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_36_.xlsx
+++ b/reports/_COSCO AGENT_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_36_.xlsx
@@ -1309,7 +1309,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="256.0898876404495" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -1331,7 +1331,7 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="33.889887640449444"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="82.28988764044944"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="60.28988764044945"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
@@ -1699,70 +1699,28 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0"/>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0" t="inlineStr">
-        <is>
-          <t>FRONT PANEL AIR PLATE SCROW MISSING 04 PCS &amp; AIR PLATE BENT 18".</t>
-        </is>
-      </c>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "FRONT PANEL AIR PLATE SCROW MISSING 04 PCS &amp; AIR PLATE BENT 18\".", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="0"/>
-      <c r="B9" s="0"/>
-      <c r="C9" s="0"/>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0"/>
-      <c r="F9" s="0"/>
-      <c r="G9" s="0"/>
-      <c r="H9" s="0"/>
-      <c r="I9" s="0"/>
-      <c r="J9" s="0"/>
-      <c r="K9" s="0"/>
-      <c r="L9" s="0"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="0"/>
-      <c r="O9" s="0"/>
-      <c r="P9" s="0"/>
-      <c r="Q9" s="0"/>
-      <c r="R9" s="0"/>
-      <c r="S9" s="0"/>
-      <c r="T9" s="0"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="0"/>
-      <c r="W9" s="0"/>
-      <c r="X9" s="0" t="inlineStr">
-        <is>
-          <t>RF FLOOR  DIRTY BY DUST.</t>
-        </is>
-      </c>
-      <c r="Y9" s="0"/>
-      <c r="Z9" s="0"/>
-      <c r="AA9" s="0"/>
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "RF FLOOR  DIRTY BY DUST.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
@@ -1877,70 +1835,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0"/>
-      <c r="I11" s="0"/>
-      <c r="J11" s="0"/>
-      <c r="K11" s="0"/>
-      <c r="L11" s="0"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="0"/>
-      <c r="O11" s="0"/>
-      <c r="P11" s="0"/>
-      <c r="Q11" s="0"/>
-      <c r="R11" s="0"/>
-      <c r="S11" s="0"/>
-      <c r="T11" s="0"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="0"/>
-      <c r="W11" s="0"/>
-      <c r="X11" s="0" t="inlineStr">
-        <is>
-          <t>F/B BROKEN DOWN 18'X18' &amp; PUTTING MISSING WITH LIGHT PASSING 24'.</t>
-        </is>
-      </c>
-      <c r="Y11" s="0"/>
-      <c r="Z11" s="0"/>
-      <c r="AA11" s="0"/>
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B BROKEN DOWN 18'X18' &amp; PUTTING MISSING WITH LIGHT PASSING 24'.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="0"/>
-      <c r="B12" s="0"/>
-      <c r="C12" s="0"/>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
-      <c r="F12" s="0"/>
-      <c r="G12" s="0"/>
-      <c r="H12" s="0"/>
-      <c r="I12" s="0"/>
-      <c r="J12" s="0"/>
-      <c r="K12" s="0"/>
-      <c r="L12" s="0"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="0"/>
-      <c r="O12" s="0"/>
-      <c r="P12" s="0"/>
-      <c r="Q12" s="0"/>
-      <c r="R12" s="0"/>
-      <c r="S12" s="0"/>
-      <c r="T12" s="0"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="0"/>
-      <c r="W12" s="0"/>
-      <c r="X12" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY WASTES PAER DUST &amp; ODOUR.</t>
-        </is>
-      </c>
-      <c r="Y12" s="0"/>
-      <c r="Z12" s="0"/>
-      <c r="AA12" s="0"/>
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY WASTES PAER DUST &amp; ODOUR.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
@@ -2055,103 +1971,40 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0"/>
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
-      <c r="I14" s="0"/>
-      <c r="J14" s="0"/>
-      <c r="K14" s="0"/>
-      <c r="L14" s="0"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="0"/>
-      <c r="O14" s="0"/>
-      <c r="P14" s="0"/>
-      <c r="Q14" s="0"/>
-      <c r="R14" s="0"/>
-      <c r="S14" s="0"/>
-      <c r="T14" s="0"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="0"/>
-      <c r="W14" s="0"/>
-      <c r="X14" s="0" t="inlineStr">
-        <is>
-          <t>BOTH DOOR LOCK BAR  BENT 02 PEC</t>
-        </is>
-      </c>
-      <c r="Y14" s="0"/>
-      <c r="Z14" s="0"/>
-      <c r="AA14" s="0"/>
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "BOTH DOOR LOCK BAR  BENT 02 PEC", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
-      <c r="I15" s="0"/>
-      <c r="J15" s="0"/>
-      <c r="K15" s="0"/>
-      <c r="L15" s="0"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="0"/>
-      <c r="O15" s="0"/>
-      <c r="P15" s="0"/>
-      <c r="Q15" s="0"/>
-      <c r="R15" s="0"/>
-      <c r="S15" s="0"/>
-      <c r="T15" s="0"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="0"/>
-      <c r="W15" s="0"/>
-      <c r="X15" s="0" t="inlineStr">
-        <is>
-          <t>L/SIDE PANEL CUT 16'+02'</t>
-        </is>
-      </c>
-      <c r="Y15" s="0"/>
-      <c r="Z15" s="0"/>
-      <c r="AA15" s="0"/>
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "L/SIDE PANEL CUT 16'+02'", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="0"/>
-      <c r="I16" s="0"/>
-      <c r="J16" s="0"/>
-      <c r="K16" s="0"/>
-      <c r="L16" s="0"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="0"/>
-      <c r="O16" s="0"/>
-      <c r="P16" s="0"/>
-      <c r="Q16" s="0"/>
-      <c r="R16" s="0"/>
-      <c r="S16" s="0"/>
-      <c r="T16" s="0"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="0"/>
-      <c r="W16" s="0"/>
-      <c r="X16" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY SCRAP DUST</t>
-        </is>
-      </c>
-      <c r="Y16" s="0"/>
-      <c r="Z16" s="0"/>
-      <c r="AA16" s="0"/>
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY SCRAP DUST", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
@@ -2266,37 +2119,16 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="0"/>
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
-      <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
-      <c r="G18" s="0"/>
-      <c r="H18" s="0"/>
-      <c r="I18" s="0"/>
-      <c r="J18" s="0"/>
-      <c r="K18" s="0"/>
-      <c r="L18" s="0"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="0"/>
-      <c r="O18" s="0"/>
-      <c r="P18" s="0"/>
-      <c r="Q18" s="0"/>
-      <c r="R18" s="0"/>
-      <c r="S18" s="0"/>
-      <c r="T18" s="0"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="0"/>
-      <c r="W18" s="0"/>
-      <c r="X18" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY DUST .</t>
-        </is>
-      </c>
-      <c r="Y18" s="0"/>
-      <c r="Z18" s="0"/>
-      <c r="AA18" s="0"/>
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY DUST .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
@@ -2411,37 +2243,16 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="0"/>
-      <c r="B20" s="0"/>
-      <c r="C20" s="0"/>
-      <c r="D20" s="0"/>
-      <c r="E20" s="0"/>
-      <c r="F20" s="0"/>
-      <c r="G20" s="0"/>
-      <c r="H20" s="0"/>
-      <c r="I20" s="0"/>
-      <c r="J20" s="0"/>
-      <c r="K20" s="0"/>
-      <c r="L20" s="0"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="0"/>
-      <c r="O20" s="0"/>
-      <c r="P20" s="0"/>
-      <c r="Q20" s="0"/>
-      <c r="R20" s="0"/>
-      <c r="S20" s="0"/>
-      <c r="T20" s="0"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="0"/>
-      <c r="W20" s="0"/>
-      <c r="X20" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY  BADLY SAND DUST.</t>
-        </is>
-      </c>
-      <c r="Y20" s="0"/>
-      <c r="Z20" s="0"/>
-      <c r="AA20" s="0"/>
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY  BADLY SAND DUST.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
@@ -2556,136 +2367,52 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="0"/>
-      <c r="B22" s="0"/>
-      <c r="C22" s="0"/>
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
-      <c r="F22" s="0"/>
-      <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
-      <c r="I22" s="0"/>
-      <c r="J22" s="0"/>
-      <c r="K22" s="0"/>
-      <c r="L22" s="0"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="0"/>
-      <c r="O22" s="0"/>
-      <c r="P22" s="0"/>
-      <c r="Q22" s="0"/>
-      <c r="R22" s="0"/>
-      <c r="S22" s="0"/>
-      <c r="T22" s="0"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="0"/>
-      <c r="W22" s="0"/>
-      <c r="X22" s="0" t="inlineStr">
-        <is>
-          <t>R/SIDE PANEL CORROSION  CUT 06' </t>
-        </is>
-      </c>
-      <c r="Y22" s="0"/>
-      <c r="Z22" s="0"/>
-      <c r="AA22" s="0"/>
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "R/SIDE PANEL CORROSION  CUT 06' ", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="0"/>
-      <c r="B23" s="0"/>
-      <c r="C23" s="0"/>
-      <c r="D23" s="0"/>
-      <c r="E23" s="0"/>
-      <c r="F23" s="0"/>
-      <c r="G23" s="0"/>
-      <c r="H23" s="0"/>
-      <c r="I23" s="0"/>
-      <c r="J23" s="0"/>
-      <c r="K23" s="0"/>
-      <c r="L23" s="0"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="0"/>
-      <c r="O23" s="0"/>
-      <c r="P23" s="0"/>
-      <c r="Q23" s="0"/>
-      <c r="R23" s="0"/>
-      <c r="S23" s="0"/>
-      <c r="T23" s="0"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="0"/>
-      <c r="W23" s="0"/>
-      <c r="X23" s="0" t="inlineStr">
-        <is>
-          <t>R/SIDE PANEL PUSSED OUT 36'X24'X02' .</t>
-        </is>
-      </c>
-      <c r="Y23" s="0"/>
-      <c r="Z23" s="0"/>
-      <c r="AA23" s="0"/>
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "R/SIDE PANEL PUSSED OUT 36'X24'X02' .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="0"/>
-      <c r="B24" s="0"/>
-      <c r="C24" s="0"/>
-      <c r="D24" s="0"/>
-      <c r="E24" s="0"/>
-      <c r="F24" s="0"/>
-      <c r="G24" s="0"/>
-      <c r="H24" s="0"/>
-      <c r="I24" s="0"/>
-      <c r="J24" s="0"/>
-      <c r="K24" s="0"/>
-      <c r="L24" s="0"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="0"/>
-      <c r="O24" s="0"/>
-      <c r="P24" s="0"/>
-      <c r="Q24" s="0"/>
-      <c r="R24" s="0"/>
-      <c r="S24" s="0"/>
-      <c r="T24" s="0"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="0"/>
-      <c r="W24" s="0"/>
-      <c r="X24" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD FLY WOOD MISSING VARIOUS PLC</t>
-        </is>
-      </c>
-      <c r="Y24" s="0"/>
-      <c r="Z24" s="0"/>
-      <c r="AA24" s="0"/>
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD FLY WOOD MISSING VARIOUS PLC", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="0"/>
-      <c r="B25" s="0"/>
-      <c r="C25" s="0"/>
-      <c r="D25" s="0"/>
-      <c r="E25" s="0"/>
-      <c r="F25" s="0"/>
-      <c r="G25" s="0"/>
-      <c r="H25" s="0"/>
-      <c r="I25" s="0"/>
-      <c r="J25" s="0"/>
-      <c r="K25" s="0"/>
-      <c r="L25" s="0"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="0"/>
-      <c r="O25" s="0"/>
-      <c r="P25" s="0"/>
-      <c r="Q25" s="0"/>
-      <c r="R25" s="0"/>
-      <c r="S25" s="0"/>
-      <c r="T25" s="0"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="0"/>
-      <c r="W25" s="0"/>
-      <c r="X25" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY DUST ?&amp; SCRATCHED V.P</t>
-        </is>
-      </c>
-      <c r="Y25" s="0"/>
-      <c r="Z25" s="0"/>
-      <c r="AA25" s="0"/>
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY DUST ?&amp; SCRATCHED V.P", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
@@ -3136,37 +2863,16 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="0"/>
-      <c r="B30" s="0"/>
-      <c r="C30" s="0"/>
-      <c r="D30" s="0"/>
-      <c r="E30" s="0"/>
-      <c r="F30" s="0"/>
-      <c r="G30" s="0"/>
-      <c r="H30" s="0"/>
-      <c r="I30" s="0"/>
-      <c r="J30" s="0"/>
-      <c r="K30" s="0"/>
-      <c r="L30" s="0"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="0"/>
-      <c r="O30" s="0"/>
-      <c r="P30" s="0"/>
-      <c r="Q30" s="0"/>
-      <c r="R30" s="0"/>
-      <c r="S30" s="0"/>
-      <c r="T30" s="0"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="0"/>
-      <c r="W30" s="0"/>
-      <c r="X30" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD OIL SPOT &amp; COTTON &amp; MUD DUST &amp; TYRE MARK &amp; SCRATCHED</t>
-        </is>
-      </c>
-      <c r="Y30" s="0"/>
-      <c r="Z30" s="0"/>
-      <c r="AA30" s="0"/>
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD OIL SPOT &amp; COTTON &amp; MUD DUST &amp; TYRE MARK &amp; SCRATCHED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
@@ -3281,37 +2987,16 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="0"/>
-      <c r="B32" s="0"/>
-      <c r="C32" s="0"/>
-      <c r="D32" s="0"/>
-      <c r="E32" s="0"/>
-      <c r="F32" s="0"/>
-      <c r="G32" s="0"/>
-      <c r="H32" s="0"/>
-      <c r="I32" s="0"/>
-      <c r="J32" s="0"/>
-      <c r="K32" s="0"/>
-      <c r="L32" s="0"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="0"/>
-      <c r="O32" s="0"/>
-      <c r="P32" s="0"/>
-      <c r="Q32" s="0"/>
-      <c r="R32" s="0"/>
-      <c r="S32" s="0"/>
-      <c r="T32" s="0"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="0"/>
-      <c r="W32" s="0"/>
-      <c r="X32" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY DUST</t>
-        </is>
-      </c>
-      <c r="Y32" s="0"/>
-      <c r="Z32" s="0"/>
-      <c r="AA32" s="0"/>
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY DUST", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
@@ -3514,37 +3199,16 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="0"/>
-      <c r="B35" s="0"/>
-      <c r="C35" s="0"/>
-      <c r="D35" s="0"/>
-      <c r="E35" s="0"/>
-      <c r="F35" s="0"/>
-      <c r="G35" s="0"/>
-      <c r="H35" s="0"/>
-      <c r="I35" s="0"/>
-      <c r="J35" s="0"/>
-      <c r="K35" s="0"/>
-      <c r="L35" s="0"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="0"/>
-      <c r="O35" s="0"/>
-      <c r="P35" s="0"/>
-      <c r="Q35" s="0"/>
-      <c r="R35" s="0"/>
-      <c r="S35" s="0"/>
-      <c r="T35" s="0"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="0"/>
-      <c r="W35" s="0"/>
-      <c r="X35" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY  SODIUM SULPHATE DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y35" s="0"/>
-      <c r="Z35" s="0"/>
-      <c r="AA35" s="0"/>
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY  SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
@@ -3659,37 +3323,16 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="0"/>
-      <c r="B37" s="0"/>
-      <c r="C37" s="0"/>
-      <c r="D37" s="0"/>
-      <c r="E37" s="0"/>
-      <c r="F37" s="0"/>
-      <c r="G37" s="0"/>
-      <c r="H37" s="0"/>
-      <c r="I37" s="0"/>
-      <c r="J37" s="0"/>
-      <c r="K37" s="0"/>
-      <c r="L37" s="0"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="0"/>
-      <c r="O37" s="0"/>
-      <c r="P37" s="0"/>
-      <c r="Q37" s="0"/>
-      <c r="R37" s="0"/>
-      <c r="S37" s="0"/>
-      <c r="T37" s="0"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="0"/>
-      <c r="W37" s="0"/>
-      <c r="X37" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY MUD+LENTILS ,SAND ,TYER MARK,STAPLE FIBER  DUST .</t>
-        </is>
-      </c>
-      <c r="Y37" s="0"/>
-      <c r="Z37" s="0"/>
-      <c r="AA37" s="0"/>
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY MUD+LENTILS ,SAND ,TYER MARK,STAPLE FIBER  DUST .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
@@ -4068,70 +3711,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="0"/>
-      <c r="B42" s="0"/>
-      <c r="C42" s="0"/>
-      <c r="D42" s="0"/>
-      <c r="E42" s="0"/>
-      <c r="F42" s="0"/>
-      <c r="G42" s="0"/>
-      <c r="H42" s="0"/>
-      <c r="I42" s="0"/>
-      <c r="J42" s="0"/>
-      <c r="K42" s="0"/>
-      <c r="L42" s="0"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="0"/>
-      <c r="O42" s="0"/>
-      <c r="P42" s="0"/>
-      <c r="Q42" s="0"/>
-      <c r="R42" s="0"/>
-      <c r="S42" s="0"/>
-      <c r="T42" s="0"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="0"/>
-      <c r="W42" s="0"/>
-      <c r="X42" s="0" t="inlineStr">
-        <is>
-          <t>EXTERNAL PANEL RUSTED CORROSION</t>
-        </is>
-      </c>
-      <c r="Y42" s="0"/>
-      <c r="Z42" s="0"/>
-      <c r="AA42" s="0"/>
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="0"/>
-      <c r="B43" s="0"/>
-      <c r="C43" s="0"/>
-      <c r="D43" s="0"/>
-      <c r="E43" s="0"/>
-      <c r="F43" s="0"/>
-      <c r="G43" s="0"/>
-      <c r="H43" s="0"/>
-      <c r="I43" s="0"/>
-      <c r="J43" s="0"/>
-      <c r="K43" s="0"/>
-      <c r="L43" s="0"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="0"/>
-      <c r="O43" s="0"/>
-      <c r="P43" s="0"/>
-      <c r="Q43" s="0"/>
-      <c r="R43" s="0"/>
-      <c r="S43" s="0"/>
-      <c r="T43" s="0"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="0"/>
-      <c r="W43" s="0"/>
-      <c r="X43" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY MUD DUST &amp; BLACK STAIN &amp;SCRATCHED</t>
-        </is>
-      </c>
-      <c r="Y43" s="0"/>
-      <c r="Z43" s="0"/>
-      <c r="AA43" s="0"/>
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY MUD DUST &amp; BLACK STAIN &amp;SCRATCHED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
@@ -4470,37 +4071,16 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="0"/>
-      <c r="B47" s="0"/>
-      <c r="C47" s="0"/>
-      <c r="D47" s="0"/>
-      <c r="E47" s="0"/>
-      <c r="F47" s="0"/>
-      <c r="G47" s="0"/>
-      <c r="H47" s="0"/>
-      <c r="I47" s="0"/>
-      <c r="J47" s="0"/>
-      <c r="K47" s="0"/>
-      <c r="L47" s="0"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="0"/>
-      <c r="O47" s="0"/>
-      <c r="P47" s="0"/>
-      <c r="Q47" s="0"/>
-      <c r="R47" s="0"/>
-      <c r="S47" s="0"/>
-      <c r="T47" s="0"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="0"/>
-      <c r="W47" s="0"/>
-      <c r="X47" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY COTTON DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y47" s="0"/>
-      <c r="Z47" s="0"/>
-      <c r="AA47" s="0"/>
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY COTTON DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
@@ -4615,70 +4195,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="0"/>
-      <c r="B49" s="0"/>
-      <c r="C49" s="0"/>
-      <c r="D49" s="0"/>
-      <c r="E49" s="0"/>
-      <c r="F49" s="0"/>
-      <c r="G49" s="0"/>
-      <c r="H49" s="0"/>
-      <c r="I49" s="0"/>
-      <c r="J49" s="0"/>
-      <c r="K49" s="0"/>
-      <c r="L49" s="0"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="0"/>
-      <c r="O49" s="0"/>
-      <c r="P49" s="0"/>
-      <c r="Q49" s="0"/>
-      <c r="R49" s="0"/>
-      <c r="S49" s="0"/>
-      <c r="T49" s="0"/>
-      <c r="U49" s="4"/>
-      <c r="V49" s="0"/>
-      <c r="W49" s="0"/>
-      <c r="X49" s="0" t="inlineStr">
-        <is>
-          <t>EXTERNAL PANEL RUSTED CORROSION</t>
-        </is>
-      </c>
-      <c r="Y49" s="0"/>
-      <c r="Z49" s="0"/>
-      <c r="AA49" s="0"/>
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="0"/>
-      <c r="B50" s="0"/>
-      <c r="C50" s="0"/>
-      <c r="D50" s="0"/>
-      <c r="E50" s="0"/>
-      <c r="F50" s="0"/>
-      <c r="G50" s="0"/>
-      <c r="H50" s="0"/>
-      <c r="I50" s="0"/>
-      <c r="J50" s="0"/>
-      <c r="K50" s="0"/>
-      <c r="L50" s="0"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="0"/>
-      <c r="O50" s="0"/>
-      <c r="P50" s="0"/>
-      <c r="Q50" s="0"/>
-      <c r="R50" s="0"/>
-      <c r="S50" s="0"/>
-      <c r="T50" s="0"/>
-      <c r="U50" s="4"/>
-      <c r="V50" s="0"/>
-      <c r="W50" s="0"/>
-      <c r="X50" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY SODIUM SULPHATE DUST &amp; ODOUR</t>
-        </is>
-      </c>
-      <c r="Y50" s="0"/>
-      <c r="Z50" s="0"/>
-      <c r="AA50" s="0"/>
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY SODIUM SULPHATE DUST &amp; ODOUR", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
@@ -4881,37 +4419,16 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="0"/>
-      <c r="B53" s="0"/>
-      <c r="C53" s="0"/>
-      <c r="D53" s="0"/>
-      <c r="E53" s="0"/>
-      <c r="F53" s="0"/>
-      <c r="G53" s="0"/>
-      <c r="H53" s="0"/>
-      <c r="I53" s="0"/>
-      <c r="J53" s="0"/>
-      <c r="K53" s="0"/>
-      <c r="L53" s="0"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="0"/>
-      <c r="O53" s="0"/>
-      <c r="P53" s="0"/>
-      <c r="Q53" s="0"/>
-      <c r="R53" s="0"/>
-      <c r="S53" s="0"/>
-      <c r="T53" s="0"/>
-      <c r="U53" s="4"/>
-      <c r="V53" s="0"/>
-      <c r="W53" s="0"/>
-      <c r="X53" s="0" t="inlineStr">
-        <is>
-          <t>RF FLOOR BOARD DIRTY BY GARLICK DUST &amp; ODOUR</t>
-        </is>
-      </c>
-      <c r="Y53" s="0"/>
-      <c r="Z53" s="0"/>
-      <c r="AA53" s="0"/>
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "RF FLOOR BOARD DIRTY BY GARLICK DUST &amp; ODOUR", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
@@ -5114,37 +4631,16 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="0"/>
-      <c r="B56" s="0"/>
-      <c r="C56" s="0"/>
-      <c r="D56" s="0"/>
-      <c r="E56" s="0"/>
-      <c r="F56" s="0"/>
-      <c r="G56" s="0"/>
-      <c r="H56" s="0"/>
-      <c r="I56" s="0"/>
-      <c r="J56" s="0"/>
-      <c r="K56" s="0"/>
-      <c r="L56" s="0"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="0"/>
-      <c r="O56" s="0"/>
-      <c r="P56" s="0"/>
-      <c r="Q56" s="0"/>
-      <c r="R56" s="0"/>
-      <c r="S56" s="0"/>
-      <c r="T56" s="0"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="0"/>
-      <c r="W56" s="0"/>
-      <c r="X56" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY MUD+SAND,TYER MARK STAPLE FIBER DUST &amp; ODOUR </t>
-        </is>
-      </c>
-      <c r="Y56" s="0"/>
-      <c r="Z56" s="0"/>
-      <c r="AA56" s="0"/>
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY MUD+SAND,TYER MARK STAPLE FIBER DUST &amp; ODOUR ", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
@@ -5259,37 +4755,16 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="0"/>
-      <c r="B58" s="0"/>
-      <c r="C58" s="0"/>
-      <c r="D58" s="0"/>
-      <c r="E58" s="0"/>
-      <c r="F58" s="0"/>
-      <c r="G58" s="0"/>
-      <c r="H58" s="0"/>
-      <c r="I58" s="0"/>
-      <c r="J58" s="0"/>
-      <c r="K58" s="0"/>
-      <c r="L58" s="0"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="0"/>
-      <c r="O58" s="0"/>
-      <c r="P58" s="0"/>
-      <c r="Q58" s="0"/>
-      <c r="R58" s="0"/>
-      <c r="S58" s="0"/>
-      <c r="T58" s="0"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="0"/>
-      <c r="W58" s="0"/>
-      <c r="X58" s="0" t="inlineStr">
-        <is>
-          <t>INTERNAL PANEL DIRTY.</t>
-        </is>
-      </c>
-      <c r="Y58" s="0"/>
-      <c r="Z58" s="0"/>
-      <c r="AA58" s="0"/>
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL DIRTY.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">

--- a/reports/_COSCO AGENT_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_36_.xlsx
+++ b/reports/_COSCO AGENT_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_36_.xlsx
@@ -1309,7 +1309,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="256.0898876404495" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -1332,7 +1332,7 @@
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="33.889887640449444"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="60.28988764044945"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="82.28988764044944"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="19.4561797752809"/>
@@ -1704,9 +1704,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "FRONT PANEL AIR PLATE SCROW MISSING 04 PCS &amp; AIR PLATE BENT 18\".", "", "", ""]</t>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X8" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y8" s="0" t="inlineStr">
+        <is>
+          <t>FRONT PANEL AIR PLATE SCROW MISSING 04 PCS &amp; AIR PLATE BENT 18".</t>
+        </is>
+      </c>
+      <c r="Z8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB8" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1716,9 +1762,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "RF FLOOR  DIRTY BY DUST.", "", "", ""]</t>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="0"/>
+      <c r="O9" s="0"/>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
+      <c r="S9" s="0"/>
+      <c r="T9" s="0"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="0"/>
+      <c r="W9" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X9" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y9" s="0" t="inlineStr">
+        <is>
+          <t>RF FLOOR  DIRTY BY DUST.</t>
+        </is>
+      </c>
+      <c r="Z9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB9" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1840,9 +1932,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B BROKEN DOWN 18'X18' &amp; PUTTING MISSING WITH LIGHT PASSING 24'.", "", "", ""]</t>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
+      <c r="T11" s="0"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X11" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y11" s="0" t="inlineStr">
+        <is>
+          <t>F/B BROKEN DOWN 18'X18' &amp; PUTTING MISSING WITH LIGHT PASSING 24'.</t>
+        </is>
+      </c>
+      <c r="Z11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB11" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1852,9 +1990,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY WASTES PAER DUST &amp; ODOUR.", "", "", ""]</t>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="0"/>
+      <c r="O12" s="0"/>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="0"/>
+      <c r="S12" s="0"/>
+      <c r="T12" s="0"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="0"/>
+      <c r="W12" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X12" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y12" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY WASTES PAER DUST &amp; ODOUR.</t>
+        </is>
+      </c>
+      <c r="Z12" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA12" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB12" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1976,9 +2160,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "BOTH DOOR LOCK BAR  BENT 02 PEC", "", "", ""]</t>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="0"/>
+      <c r="O14" s="0"/>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
+      <c r="S14" s="0"/>
+      <c r="T14" s="0"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="0"/>
+      <c r="W14" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X14" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y14" s="0" t="inlineStr">
+        <is>
+          <t>BOTH DOOR LOCK BAR  BENT 02 PEC</t>
+        </is>
+      </c>
+      <c r="Z14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB14" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1988,9 +2218,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "L/SIDE PANEL CUT 16'+02'", "", "", ""]</t>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="0"/>
+      <c r="O15" s="0"/>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="0"/>
+      <c r="S15" s="0"/>
+      <c r="T15" s="0"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="0"/>
+      <c r="W15" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X15" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y15" s="0" t="inlineStr">
+        <is>
+          <t>L/SIDE PANEL CUT 16'+02'</t>
+        </is>
+      </c>
+      <c r="Z15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB15" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2000,9 +2276,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY SCRAP DUST", "", "", ""]</t>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="0"/>
+      <c r="O16" s="0"/>
+      <c r="P16" s="0"/>
+      <c r="Q16" s="0"/>
+      <c r="R16" s="0"/>
+      <c r="S16" s="0"/>
+      <c r="T16" s="0"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="0"/>
+      <c r="W16" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X16" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y16" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY SCRAP DUST</t>
+        </is>
+      </c>
+      <c r="Z16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB16" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2124,9 +2446,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY DUST .", "", "", ""]</t>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0"/>
+      <c r="H18" s="0"/>
+      <c r="I18" s="0"/>
+      <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
+      <c r="L18" s="0"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="0"/>
+      <c r="O18" s="0"/>
+      <c r="P18" s="0"/>
+      <c r="Q18" s="0"/>
+      <c r="R18" s="0"/>
+      <c r="S18" s="0"/>
+      <c r="T18" s="0"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="0"/>
+      <c r="W18" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X18" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y18" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY DUST .</t>
+        </is>
+      </c>
+      <c r="Z18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB18" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2248,9 +2616,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY  BADLY SAND DUST.", "", "", ""]</t>
+      <c r="B20" s="0"/>
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0"/>
+      <c r="H20" s="0"/>
+      <c r="I20" s="0"/>
+      <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
+      <c r="L20" s="0"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="0"/>
+      <c r="O20" s="0"/>
+      <c r="P20" s="0"/>
+      <c r="Q20" s="0"/>
+      <c r="R20" s="0"/>
+      <c r="S20" s="0"/>
+      <c r="T20" s="0"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="0"/>
+      <c r="W20" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X20" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y20" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY  BADLY SAND DUST.</t>
+        </is>
+      </c>
+      <c r="Z20" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA20" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB20" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2372,9 +2786,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "R/SIDE PANEL CORROSION  CUT 06' ", "", "", ""]</t>
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
+      <c r="H22" s="0"/>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="0"/>
+      <c r="O22" s="0"/>
+      <c r="P22" s="0"/>
+      <c r="Q22" s="0"/>
+      <c r="R22" s="0"/>
+      <c r="S22" s="0"/>
+      <c r="T22" s="0"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="0"/>
+      <c r="W22" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X22" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y22" s="0" t="inlineStr">
+        <is>
+          <t>R/SIDE PANEL CORROSION  CUT 06' </t>
+        </is>
+      </c>
+      <c r="Z22" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA22" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB22" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2384,9 +2844,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "R/SIDE PANEL PUSSED OUT 36'X24'X02' .", "", "", ""]</t>
+      <c r="B23" s="0"/>
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0"/>
+      <c r="G23" s="0"/>
+      <c r="H23" s="0"/>
+      <c r="I23" s="0"/>
+      <c r="J23" s="0"/>
+      <c r="K23" s="0"/>
+      <c r="L23" s="0"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="0"/>
+      <c r="O23" s="0"/>
+      <c r="P23" s="0"/>
+      <c r="Q23" s="0"/>
+      <c r="R23" s="0"/>
+      <c r="S23" s="0"/>
+      <c r="T23" s="0"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="0"/>
+      <c r="W23" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X23" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y23" s="0" t="inlineStr">
+        <is>
+          <t>R/SIDE PANEL PUSSED OUT 36'X24'X02' .</t>
+        </is>
+      </c>
+      <c r="Z23" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA23" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB23" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2396,9 +2902,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD FLY WOOD MISSING VARIOUS PLC", "", "", ""]</t>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="0"/>
+      <c r="O24" s="0"/>
+      <c r="P24" s="0"/>
+      <c r="Q24" s="0"/>
+      <c r="R24" s="0"/>
+      <c r="S24" s="0"/>
+      <c r="T24" s="0"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="0"/>
+      <c r="W24" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X24" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y24" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD FLY WOOD MISSING VARIOUS PLC</t>
+        </is>
+      </c>
+      <c r="Z24" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA24" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB24" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2408,9 +2960,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY DUST ?&amp; SCRATCHED V.P", "", "", ""]</t>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="0"/>
+      <c r="O25" s="0"/>
+      <c r="P25" s="0"/>
+      <c r="Q25" s="0"/>
+      <c r="R25" s="0"/>
+      <c r="S25" s="0"/>
+      <c r="T25" s="0"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="0"/>
+      <c r="W25" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X25" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y25" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY DUST ?&amp; SCRATCHED V.P</t>
+        </is>
+      </c>
+      <c r="Z25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB25" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2868,9 +3466,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD OIL SPOT &amp; COTTON &amp; MUD DUST &amp; TYRE MARK &amp; SCRATCHED", "", "", ""]</t>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="0"/>
+      <c r="O30" s="0"/>
+      <c r="P30" s="0"/>
+      <c r="Q30" s="0"/>
+      <c r="R30" s="0"/>
+      <c r="S30" s="0"/>
+      <c r="T30" s="0"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="0"/>
+      <c r="W30" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X30" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y30" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD OIL SPOT &amp; COTTON &amp; MUD DUST &amp; TYRE MARK &amp; SCRATCHED</t>
+        </is>
+      </c>
+      <c r="Z30" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA30" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB30" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2992,9 +3636,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY DUST", "", "", ""]</t>
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
+      <c r="J32" s="0"/>
+      <c r="K32" s="0"/>
+      <c r="L32" s="0"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="0"/>
+      <c r="O32" s="0"/>
+      <c r="P32" s="0"/>
+      <c r="Q32" s="0"/>
+      <c r="R32" s="0"/>
+      <c r="S32" s="0"/>
+      <c r="T32" s="0"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="0"/>
+      <c r="W32" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X32" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y32" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY DUST</t>
+        </is>
+      </c>
+      <c r="Z32" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA32" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB32" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3204,9 +3894,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B35" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY  SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="0"/>
+      <c r="L35" s="0"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="0"/>
+      <c r="O35" s="0"/>
+      <c r="P35" s="0"/>
+      <c r="Q35" s="0"/>
+      <c r="R35" s="0"/>
+      <c r="S35" s="0"/>
+      <c r="T35" s="0"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="0"/>
+      <c r="W35" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X35" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y35" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY  SODIUM SULPHATE DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z35" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA35" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB35" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3328,9 +4064,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B37" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY MUD+LENTILS ,SAND ,TYER MARK,STAPLE FIBER  DUST .", "", "", ""]</t>
+      <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
+      <c r="I37" s="0"/>
+      <c r="J37" s="0"/>
+      <c r="K37" s="0"/>
+      <c r="L37" s="0"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="0"/>
+      <c r="O37" s="0"/>
+      <c r="P37" s="0"/>
+      <c r="Q37" s="0"/>
+      <c r="R37" s="0"/>
+      <c r="S37" s="0"/>
+      <c r="T37" s="0"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="0"/>
+      <c r="W37" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X37" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y37" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY MUD+LENTILS ,SAND ,TYER MARK,STAPLE FIBER  DUST .</t>
+        </is>
+      </c>
+      <c r="Z37" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA37" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB37" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3716,9 +4498,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B42" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION", "", "", ""]</t>
+      <c r="B42" s="0"/>
+      <c r="C42" s="0"/>
+      <c r="D42" s="0"/>
+      <c r="E42" s="0"/>
+      <c r="F42" s="0"/>
+      <c r="G42" s="0"/>
+      <c r="H42" s="0"/>
+      <c r="I42" s="0"/>
+      <c r="J42" s="0"/>
+      <c r="K42" s="0"/>
+      <c r="L42" s="0"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="0"/>
+      <c r="O42" s="0"/>
+      <c r="P42" s="0"/>
+      <c r="Q42" s="0"/>
+      <c r="R42" s="0"/>
+      <c r="S42" s="0"/>
+      <c r="T42" s="0"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="0"/>
+      <c r="W42" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X42" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y42" s="0" t="inlineStr">
+        <is>
+          <t>EXTERNAL PANEL RUSTED CORROSION</t>
+        </is>
+      </c>
+      <c r="Z42" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA42" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB42" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3728,9 +4556,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B43" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY MUD DUST &amp; BLACK STAIN &amp;SCRATCHED", "", "", ""]</t>
+      <c r="B43" s="0"/>
+      <c r="C43" s="0"/>
+      <c r="D43" s="0"/>
+      <c r="E43" s="0"/>
+      <c r="F43" s="0"/>
+      <c r="G43" s="0"/>
+      <c r="H43" s="0"/>
+      <c r="I43" s="0"/>
+      <c r="J43" s="0"/>
+      <c r="K43" s="0"/>
+      <c r="L43" s="0"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="0"/>
+      <c r="O43" s="0"/>
+      <c r="P43" s="0"/>
+      <c r="Q43" s="0"/>
+      <c r="R43" s="0"/>
+      <c r="S43" s="0"/>
+      <c r="T43" s="0"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="0"/>
+      <c r="W43" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X43" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y43" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY MUD DUST &amp; BLACK STAIN &amp;SCRATCHED</t>
+        </is>
+      </c>
+      <c r="Z43" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA43" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB43" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4076,9 +4950,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B47" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY COTTON DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B47" s="0"/>
+      <c r="C47" s="0"/>
+      <c r="D47" s="0"/>
+      <c r="E47" s="0"/>
+      <c r="F47" s="0"/>
+      <c r="G47" s="0"/>
+      <c r="H47" s="0"/>
+      <c r="I47" s="0"/>
+      <c r="J47" s="0"/>
+      <c r="K47" s="0"/>
+      <c r="L47" s="0"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="0"/>
+      <c r="O47" s="0"/>
+      <c r="P47" s="0"/>
+      <c r="Q47" s="0"/>
+      <c r="R47" s="0"/>
+      <c r="S47" s="0"/>
+      <c r="T47" s="0"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="0"/>
+      <c r="W47" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X47" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y47" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY COTTON DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z47" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA47" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB47" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4200,9 +5120,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B49" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION", "", "", ""]</t>
+      <c r="B49" s="0"/>
+      <c r="C49" s="0"/>
+      <c r="D49" s="0"/>
+      <c r="E49" s="0"/>
+      <c r="F49" s="0"/>
+      <c r="G49" s="0"/>
+      <c r="H49" s="0"/>
+      <c r="I49" s="0"/>
+      <c r="J49" s="0"/>
+      <c r="K49" s="0"/>
+      <c r="L49" s="0"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="0"/>
+      <c r="O49" s="0"/>
+      <c r="P49" s="0"/>
+      <c r="Q49" s="0"/>
+      <c r="R49" s="0"/>
+      <c r="S49" s="0"/>
+      <c r="T49" s="0"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="0"/>
+      <c r="W49" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X49" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y49" s="0" t="inlineStr">
+        <is>
+          <t>EXTERNAL PANEL RUSTED CORROSION</t>
+        </is>
+      </c>
+      <c r="Z49" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA49" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB49" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4212,9 +5178,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B50" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY SODIUM SULPHATE DUST &amp; ODOUR", "", "", ""]</t>
+      <c r="B50" s="0"/>
+      <c r="C50" s="0"/>
+      <c r="D50" s="0"/>
+      <c r="E50" s="0"/>
+      <c r="F50" s="0"/>
+      <c r="G50" s="0"/>
+      <c r="H50" s="0"/>
+      <c r="I50" s="0"/>
+      <c r="J50" s="0"/>
+      <c r="K50" s="0"/>
+      <c r="L50" s="0"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="0"/>
+      <c r="O50" s="0"/>
+      <c r="P50" s="0"/>
+      <c r="Q50" s="0"/>
+      <c r="R50" s="0"/>
+      <c r="S50" s="0"/>
+      <c r="T50" s="0"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="0"/>
+      <c r="W50" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X50" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y50" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY SODIUM SULPHATE DUST &amp; ODOUR</t>
+        </is>
+      </c>
+      <c r="Z50" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA50" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB50" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4424,9 +5436,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B53" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "RF FLOOR BOARD DIRTY BY GARLICK DUST &amp; ODOUR", "", "", ""]</t>
+      <c r="B53" s="0"/>
+      <c r="C53" s="0"/>
+      <c r="D53" s="0"/>
+      <c r="E53" s="0"/>
+      <c r="F53" s="0"/>
+      <c r="G53" s="0"/>
+      <c r="H53" s="0"/>
+      <c r="I53" s="0"/>
+      <c r="J53" s="0"/>
+      <c r="K53" s="0"/>
+      <c r="L53" s="0"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="0"/>
+      <c r="O53" s="0"/>
+      <c r="P53" s="0"/>
+      <c r="Q53" s="0"/>
+      <c r="R53" s="0"/>
+      <c r="S53" s="0"/>
+      <c r="T53" s="0"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="0"/>
+      <c r="W53" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X53" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y53" s="0" t="inlineStr">
+        <is>
+          <t>RF FLOOR BOARD DIRTY BY GARLICK DUST &amp; ODOUR</t>
+        </is>
+      </c>
+      <c r="Z53" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA53" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB53" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4636,9 +5694,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B56" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY MUD+SAND,TYER MARK STAPLE FIBER DUST &amp; ODOUR ", "", "", ""]</t>
+      <c r="B56" s="0"/>
+      <c r="C56" s="0"/>
+      <c r="D56" s="0"/>
+      <c r="E56" s="0"/>
+      <c r="F56" s="0"/>
+      <c r="G56" s="0"/>
+      <c r="H56" s="0"/>
+      <c r="I56" s="0"/>
+      <c r="J56" s="0"/>
+      <c r="K56" s="0"/>
+      <c r="L56" s="0"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="0"/>
+      <c r="O56" s="0"/>
+      <c r="P56" s="0"/>
+      <c r="Q56" s="0"/>
+      <c r="R56" s="0"/>
+      <c r="S56" s="0"/>
+      <c r="T56" s="0"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="0"/>
+      <c r="W56" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X56" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y56" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY MUD+SAND,TYER MARK STAPLE FIBER DUST &amp; ODOUR </t>
+        </is>
+      </c>
+      <c r="Z56" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA56" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB56" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4760,9 +5864,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B58" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL DIRTY.", "", "", ""]</t>
+      <c r="B58" s="0"/>
+      <c r="C58" s="0"/>
+      <c r="D58" s="0"/>
+      <c r="E58" s="0"/>
+      <c r="F58" s="0"/>
+      <c r="G58" s="0"/>
+      <c r="H58" s="0"/>
+      <c r="I58" s="0"/>
+      <c r="J58" s="0"/>
+      <c r="K58" s="0"/>
+      <c r="L58" s="0"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="0"/>
+      <c r="O58" s="0"/>
+      <c r="P58" s="0"/>
+      <c r="Q58" s="0"/>
+      <c r="R58" s="0"/>
+      <c r="S58" s="0"/>
+      <c r="T58" s="0"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="0"/>
+      <c r="W58" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X58" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y58" s="0" t="inlineStr">
+        <is>
+          <t>INTERNAL PANEL DIRTY.</t>
+        </is>
+      </c>
+      <c r="Z58" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA58" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB58" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>

--- a/reports/_COSCO AGENT_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_36_.xlsx
+++ b/reports/_COSCO AGENT_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_36_.xlsx
@@ -1362,7 +1362,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:31</t>
+          <t>Total number of containers:31</t>
         </is>
       </c>
     </row>
